--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F2E2C-DEAD-44FA-9DE9-CAC30F722EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B33D3-6839-45F4-8420-23B05C6ACBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>what</t>
   </si>
@@ -37,94 +37,94 @@
     <t>why</t>
   </si>
   <si>
-    <t>University Park, PA</t>
-  </si>
-  <si>
-    <t>Providing Touchable Knowledge Structure Graphic Feedback for Blind Online Learners: Tablet-Based Haptic Feedback and Paper-Based Tactile Feedback</t>
-  </si>
-  <si>
-    <t>Mar. 2016 - Aug. 2017</t>
-  </si>
-  <si>
-    <t>Developed a prototype website and mobile app for accessible knowledge structure.</t>
-  </si>
-  <si>
-    <t>Center for Online Innovation in Learning, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Co-led (Co-PI) a development project funded by Penn State to provide blind online learners with accessible network graphs that measure students’ knowledge structure.</t>
-  </si>
-  <si>
-    <t>Jul. 2010 - Jun. 2011</t>
-  </si>
-  <si>
-    <t>Seed Funding for Start-Up Company for the Youth, City of Seoul</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Funding amount: $30,000 USD.</t>
-  </si>
-  <si>
-    <t>Co-Founded and Project-Managed ICE Soft.</t>
-  </si>
-  <si>
-    <t>Worked with a team and developed an gps app for the blind.</t>
-  </si>
-  <si>
-    <t>Dissertation Research Initiation Grant</t>
-  </si>
-  <si>
-    <t>Feb. 2020 - Dec. 2020</t>
-  </si>
-  <si>
-    <t>College of Education, The Pennsylvania State University</t>
-  </si>
-  <si>
-    <t>Selected as one of the 10 outstanding dissertation research proposals in 2019-2020 academic year.</t>
-  </si>
-  <si>
-    <t>ICE Soft: I See through Assistive Technology</t>
-  </si>
-  <si>
-    <t>2014 - 2016</t>
-  </si>
-  <si>
-    <t>National Institute for International Education, Korean Government</t>
-  </si>
-  <si>
-    <t>Fully sponsored by Korean Government for the Master's research.</t>
-  </si>
-  <si>
-    <t>Future Interdisciplinary Study</t>
-  </si>
-  <si>
-    <t>Funding amount: $70,000 USD.</t>
-  </si>
-  <si>
-    <t>Funding amount: $33,060 USD.</t>
-  </si>
-  <si>
-    <t>Funding amount: $600 USD.</t>
-  </si>
-  <si>
-    <t>2016 - 2018</t>
-  </si>
-  <si>
-    <t>ChungInwook Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>Doctoral Research</t>
-  </si>
-  <si>
-    <t>Innovative Research Funding</t>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Research on the Development of An Assessment to Measure Kindergarten Children's Abilities to Reason Computationally With Mathematical Problem-Solving Skills</t>
+  </si>
+  <si>
+    <t>Sept. 2019 - Feb. 2022</t>
+  </si>
+  <si>
+    <t>National Science Foundation: Division Of Research On Learning</t>
+  </si>
+  <si>
+    <t>DUNS ID: 072983455</t>
+  </si>
+  <si>
+    <t>Program: STEM + Computing (STEM+C) Part</t>
+  </si>
+  <si>
+    <t>PI: Jody Clarke Midura</t>
+  </si>
+  <si>
+    <t>Co-PI: Victor Raymond Lee, Jessica Shumway</t>
+  </si>
+  <si>
+    <t>Amount: \$1,120,807</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R01 Grant: Progression of Dementia, A Population Study. </t>
+  </si>
+  <si>
+    <t>Roll: data management and analysis</t>
+  </si>
+  <si>
+    <t>National Institute of Health: National Institute on Aging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIs: Dr. Joann Tschanz and  Dr. Constantine G. Lyketsos  </t>
+  </si>
+  <si>
+    <t>Sept. 2002 – Sept. 2013</t>
+  </si>
+  <si>
+    <t>DUNS ID: 072983455 (original)</t>
+  </si>
+  <si>
+    <t>Amount: \$2,787,792 (original)</t>
+  </si>
+  <si>
+    <t>Extended multiple times</t>
+  </si>
+  <si>
+    <t>R01 Grant: Cache County Family-based Cohort Study on Aging.</t>
+  </si>
+  <si>
+    <t>Amount \$1,999,400(original)</t>
+  </si>
+  <si>
+    <t>Sept 2000 - Sept 2005</t>
+  </si>
+  <si>
+    <t>R01 Grant: Lifespan Stressors and Alzheimer’s Disease: The Cache County Study.</t>
+  </si>
+  <si>
+    <t>July 2008 - June 2011</t>
+  </si>
+  <si>
+    <t>Pis: Dr. Maria Norton</t>
+  </si>
+  <si>
+    <t>Co-PI: Dr. Joann Tschanz</t>
+  </si>
+  <si>
+    <t>Pis: Drs John Breitner, Kathy Welch-Bohmer</t>
+  </si>
+  <si>
+    <t>Amount:  \$970,549 (original)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,8 +602,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,149 +960,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="37.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.9296875" customWidth="1"/>
+    <col min="4" max="4" width="33.73046875" customWidth="1"/>
+    <col min="5" max="5" width="27.06640625" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F23" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B33D3-6839-45F4-8420-23B05C6ACBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C209852-5D94-479C-8F21-E7C74700E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>what</t>
   </si>
@@ -37,21 +37,9 @@
     <t>why</t>
   </si>
   <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
     <t>Research on the Development of An Assessment to Measure Kindergarten Children's Abilities to Reason Computationally With Mathematical Problem-Solving Skills</t>
   </si>
   <si>
-    <t>Sept. 2019 - Feb. 2022</t>
-  </si>
-  <si>
-    <t>National Science Foundation: Division Of Research On Learning</t>
-  </si>
-  <si>
-    <t>DUNS ID: 072983455</t>
-  </si>
-  <si>
     <t>Program: STEM + Computing (STEM+C) Part</t>
   </si>
   <si>
@@ -67,55 +55,130 @@
     <t>order</t>
   </si>
   <si>
-    <t xml:space="preserve"> R01 Grant: Progression of Dementia, A Population Study. </t>
-  </si>
-  <si>
     <t>Roll: data management and analysis</t>
   </si>
   <si>
-    <t>National Institute of Health: National Institute on Aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIs: Dr. Joann Tschanz and  Dr. Constantine G. Lyketsos  </t>
-  </si>
-  <si>
-    <t>Sept. 2002 – Sept. 2013</t>
-  </si>
-  <si>
-    <t>DUNS ID: 072983455 (original)</t>
-  </si>
-  <si>
     <t>Amount: \$2,787,792 (original)</t>
   </si>
   <si>
     <t>Extended multiple times</t>
   </si>
   <si>
-    <t>R01 Grant: Cache County Family-based Cohort Study on Aging.</t>
-  </si>
-  <si>
     <t>Amount \$1,999,400(original)</t>
   </si>
   <si>
-    <t>Sept 2000 - Sept 2005</t>
-  </si>
-  <si>
-    <t>R01 Grant: Lifespan Stressors and Alzheimer’s Disease: The Cache County Study.</t>
-  </si>
-  <si>
-    <t>July 2008 - June 2011</t>
-  </si>
-  <si>
-    <t>Pis: Dr. Maria Norton</t>
-  </si>
-  <si>
-    <t>Co-PI: Dr. Joann Tschanz</t>
-  </si>
-  <si>
-    <t>Pis: Drs John Breitner, Kathy Welch-Bohmer</t>
-  </si>
-  <si>
     <t>Amount:  \$970,549 (original)</t>
+  </si>
+  <si>
+    <t>Cataloguing Cache County memory study Biological Samples</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>PI: JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Roll: statistician</t>
+  </si>
+  <si>
+    <t>Amount: \$62,184</t>
+  </si>
+  <si>
+    <t>PI: Ron Gillam</t>
+  </si>
+  <si>
+    <t>Partnership with Ohio University and University of Arizona</t>
+  </si>
+  <si>
+    <t>co-PI Karen Munoz, Karl White</t>
+  </si>
+  <si>
+    <t>PI: Maria Kleinstaeuber</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Roll: support</t>
+  </si>
+  <si>
+    <t>Amount \$2,500,000 (\$1,266,865 USU)</t>
+  </si>
+  <si>
+    <t>2000 - 2005</t>
+  </si>
+  <si>
+    <t>2002 - 2013</t>
+  </si>
+  <si>
+    <t>2008 - 2011</t>
+  </si>
+  <si>
+    <t>2019 - 2022</t>
+  </si>
+  <si>
+    <t>Cache County Family-based Cohort Study on Aging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progression of Dementia, A Population Study. </t>
+  </si>
+  <si>
+    <t>Lifespan Stressors and Alzheimer’s Disease: The Cache County Study.</t>
+  </si>
+  <si>
+    <t>Predicting the Transition from Acute to a Chronic, Debilitating Tinnitus</t>
+  </si>
+  <si>
+    <t>USU: Research Catalyst</t>
+  </si>
+  <si>
+    <t>USU: ADRC</t>
+  </si>
+  <si>
+    <t>Treating Complex Syntax in Children with DLD</t>
+  </si>
+  <si>
+    <t>NIH: R01</t>
+  </si>
+  <si>
+    <t>PIs: John Breitner, Kathy Welch-Bohmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIs: Joann Tschanz, Constantine G. Lyketsos  </t>
+  </si>
+  <si>
+    <t>Extended multiple times - DUNS ID: 072983455 (original)</t>
+  </si>
+  <si>
+    <t>Alzheimer's and Dementia Research Center</t>
+  </si>
+  <si>
+    <t>Internal Seed Grant</t>
+  </si>
+  <si>
+    <t>2024-2028</t>
+  </si>
+  <si>
+    <t>PIs: Maria Norton, Joann Tschanz</t>
+  </si>
+  <si>
+    <t>NSF: STEM</t>
+  </si>
+  <si>
+    <t>Amount: \$2,641,126</t>
+  </si>
+  <si>
+    <t>Sub-award to BYU, lead: Perry Ridge</t>
+  </si>
+  <si>
+    <t>NIH: U01</t>
+  </si>
+  <si>
+    <t>2025-2029</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease in Native Hawaiians and Pacific Islanders: Sample Acquisition and Whole Genome Sequencing</t>
   </si>
 </sst>
 </file>
@@ -125,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +323,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +515,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -602,9 +684,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -664,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,7 +795,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -810,7 +901,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,7 +1043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,24 +1051,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.86328125" customWidth="1"/>
-    <col min="3" max="3" width="20.9296875" customWidth="1"/>
-    <col min="4" max="4" width="33.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="4" max="4" width="74.86328125" customWidth="1"/>
     <col min="5" max="5" width="27.06640625" customWidth="1"/>
     <col min="6" max="6" width="39.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -999,110 +1090,87 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1110,39 +1178,156 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
         <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F22" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F23" s="1" t="s">
-        <v>13</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="F40" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C209852-5D94-479C-8F21-E7C74700E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E3986D-04AB-44C7-BC15-31FEFE755AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>what</t>
   </si>
@@ -164,21 +164,6 @@
   </si>
   <si>
     <t>NSF: STEM</t>
-  </si>
-  <si>
-    <t>Amount: \$2,641,126</t>
-  </si>
-  <si>
-    <t>Sub-award to BYU, lead: Perry Ridge</t>
-  </si>
-  <si>
-    <t>NIH: U01</t>
-  </si>
-  <si>
-    <t>2025-2029</t>
-  </si>
-  <si>
-    <t>Alzheimer's Disease in Native Hawaiians and Pacific Islanders: Sample Acquisition and Whole Genome Sequencing</t>
   </si>
 </sst>
 </file>
@@ -693,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1039,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="C38" sqref="A38:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1297,38 +1282,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E3986D-04AB-44C7-BC15-31FEFE755AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E687C9-2804-497C-9D28-202AF2CE594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="2610" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="education" sheetId="1" r:id="rId1"/>
+    <sheet name="funded" sheetId="1" r:id="rId1"/>
+    <sheet name="submitted" sheetId="2" r:id="rId2"/>
+    <sheet name="preping" sheetId="4" r:id="rId3"/>
+    <sheet name="dead" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>what</t>
   </si>
@@ -164,6 +167,216 @@
   </si>
   <si>
     <t>NSF: STEM</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>Pavlovian Approaches to Promoting Self-control</t>
+  </si>
+  <si>
+    <t>Resubmission (original was prior to my involvment)</t>
+  </si>
+  <si>
+    <t>PI: Greg Madden</t>
+  </si>
+  <si>
+    <t>Amount \$393,284</t>
+  </si>
+  <si>
+    <t>Age-Related Decline in Markers of Norepinephrine Activity and Increased Risk of Falls in Older Adults</t>
+  </si>
+  <si>
+    <t>Original submissions: March 2023, Feb 2024</t>
+  </si>
+  <si>
+    <t>PI: Chris Warren</t>
+  </si>
+  <si>
+    <t>co-PI's: Dave Bolton, JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Amount: \$2,200,000</t>
+  </si>
+  <si>
+    <t>Currently preparing resubmission</t>
+  </si>
+  <si>
+    <t>Does rapid stopping ability predict falls in community-dwelling older adults?</t>
+  </si>
+  <si>
+    <t>New submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI: Dave Bolton </t>
+  </si>
+  <si>
+    <t>co-PIs: JoAnn Tschanz, Brennan Thompson</t>
+  </si>
+  <si>
+    <t>Roll: co-investigator</t>
+  </si>
+  <si>
+    <t>Amount \$3,342,460</t>
+  </si>
+  <si>
+    <t>NIH: R21</t>
+  </si>
+  <si>
+    <t>Examining minimal dose eccentric resistance training for older adults: A paradigm to enhance resistance training benefits through improved participation</t>
+  </si>
+  <si>
+    <t>PI: Brennan Thompson</t>
+  </si>
+  <si>
+    <t>co-Is: Dave Bolton, Talin Louder</t>
+  </si>
+  <si>
+    <t>Amount: \$390,754</t>
+  </si>
+  <si>
+    <t>Parental Microprotections in Black Families:  Examining Links Among Racial Discrimination, Parenting, and Adolescent Psychosocial Adjustment</t>
+  </si>
+  <si>
+    <t>PI: Aryn Dotterer</t>
+  </si>
+  <si>
+    <t>co-I: Olivenne Skinner</t>
+  </si>
+  <si>
+    <t>Amount: \$412,783</t>
+  </si>
+  <si>
+    <t>June 2024</t>
+  </si>
+  <si>
+    <t>Toward a better understanding of medically unexplained chronic fatigue in older adults: A multiple observations and measurements pilot study</t>
+  </si>
+  <si>
+    <t>Original submissions: June 2023, Jun 2024</t>
+  </si>
+  <si>
+    <t>co-Is: Dave Bolton, Kim Clevenger</t>
+  </si>
+  <si>
+    <t>Amount \$146,000</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>Response Inhibition in Reactive Balance Control</t>
+  </si>
+  <si>
+    <t>Aquatic Exercise for Improving Gait and Cognition in Older Adults</t>
+  </si>
+  <si>
+    <t>PI: Talin Louder</t>
+  </si>
+  <si>
+    <t>co-Is: Chris Dakin, Shannon Pynn</t>
+  </si>
+  <si>
+    <t>Feasibility of Kundalini yoga in managing the cognitive decline in long-term care residents with mild cognitive impairment</t>
+  </si>
+  <si>
+    <t>PI: Kollol Bhattacharyya</t>
+  </si>
+  <si>
+    <t>co-I: JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>October 2024</t>
+  </si>
+  <si>
+    <t>Efficacy of the ‘Level-Up’ Classroom Design Intervention for Physical Activity Promotion in Preschool-Aged Children</t>
+  </si>
+  <si>
+    <t>PI: Kim Clevenger</t>
+  </si>
+  <si>
+    <t>Co-Is: Keith Christensen, Sarah Schwartz, Karin Pfeiffer, Tyler Prochnmow</t>
+  </si>
+  <si>
+    <t>Amount: \$2,317,584 (5 years)</t>
+  </si>
+  <si>
+    <t>Developing a Tool to Measure Behavior Intervention Complexity</t>
+  </si>
+  <si>
+    <t>PI: Katie Brown</t>
+  </si>
+  <si>
+    <t>Amount: \$274,999 (2 years)</t>
+  </si>
+  <si>
+    <t>Febuary 2025</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease in Native Hawaiians and Pacific Islanders: Sample Acquisition and Whole Genome Sequencing</t>
+  </si>
+  <si>
+    <t>Amount: \$2,641,126 (4 years)</t>
+  </si>
+  <si>
+    <t>co-PIs: JoAnn Tschanz, Chris Warren, others</t>
+  </si>
+  <si>
+    <t>Amount \$3,046,212 (4 years)</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>PI: Yin Liu</t>
+  </si>
+  <si>
+    <t>Amount: \$299,991 (4 years)</t>
+  </si>
+  <si>
+    <t>Characterizing medically unexplained chronic fatigue in older adults using a novel multifactorial approach: A pilot study</t>
+  </si>
+  <si>
+    <t>PI: Brennan Thompmson</t>
+  </si>
+  <si>
+    <t>co-I: Kim Clevenger</t>
+  </si>
+  <si>
+    <t>Amount \$384,607 (2 years)</t>
+  </si>
+  <si>
+    <t>Amount \$417,373 (2 years)</t>
+  </si>
+  <si>
+    <t>Resubmission (Summer 2023)</t>
+  </si>
+  <si>
+    <t>NIH: R03</t>
+  </si>
+  <si>
+    <t>Prior submission scored 18th percentile (2024)</t>
+  </si>
+  <si>
+    <t>Sub-award to BYU, lead: Perry Ridge - NIH requested resubmission as an R01</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Original submission: Feb 2024</t>
+  </si>
+  <si>
+    <t>Original submissions: June 2023, March 2024 (17th percentile)</t>
+  </si>
+  <si>
+    <t>New submission with Arizona State University</t>
+  </si>
+  <si>
+    <t>Orignial submission: Feb 2024</t>
+  </si>
+  <si>
+    <t>Managing Cardiometabolic Conditions and Loneliness that Co-occur with Cognitive Decline: Effects of an Indoor Gardening Intervention on Daily Health Behaviors Among Home-Bound Older Adults Receiving Home Delivered Meals</t>
   </si>
 </sst>
 </file>
@@ -173,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +534,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,6 +905,39 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1038,20 +1296,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C38" sqref="A38:XFD42"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
-    <col min="4" max="4" width="74.86328125" customWidth="1"/>
-    <col min="5" max="5" width="27.06640625" customWidth="1"/>
-    <col min="6" max="6" width="39.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="74.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1071,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,17 +1349,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1121,17 +1379,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1148,17 +1406,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1178,17 +1436,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1208,20 +1466,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1241,17 +1499,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1271,27 +1529,726 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00557737-E21E-483C-B8A3-288237DE2625}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="14.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>5</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>7</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>8</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>9</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="F48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379C77C8-189D-47B0-BE77-25570E90213F}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="60" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+      <c r="E29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8259D0-D779-4AE5-B808-06987DF71F03}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="A2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/grant.xlsx
+++ b/data/grant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E687C9-2804-497C-9D28-202AF2CE594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A29C1CA-8332-4B4D-BBEB-C734155074B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2610" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="975" windowWidth="27555" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="funded" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>what</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Roll: support</t>
   </si>
   <si>
-    <t>Amount \$2,500,000 (\$1,266,865 USU)</t>
-  </si>
-  <si>
     <t>2000 - 2005</t>
   </si>
   <si>
@@ -377,6 +374,27 @@
   </si>
   <si>
     <t>Managing Cardiometabolic Conditions and Loneliness that Co-occur with Cognitive Decline: Effects of an Indoor Gardening Intervention on Daily Health Behaviors Among Home-Bound Older Adults Receiving Home Delivered Meals</t>
+  </si>
+  <si>
+    <t>NIH: U01</t>
+  </si>
+  <si>
+    <t>2025-2030</t>
+  </si>
+  <si>
+    <t>Subcontract to BYU</t>
+  </si>
+  <si>
+    <t>Amount\$1,266,865 (USU's portion)</t>
+  </si>
+  <si>
+    <t>Amount \$2,058,829 (USU's portion)</t>
+  </si>
+  <si>
+    <t>co-PIs: John Kauwe (BYU-H), JoAnn Tschanz (USU)</t>
+  </si>
+  <si>
+    <t>PI: Perry Ridge (BYU-P)</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,19 +1352,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,19 +1382,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,16 +1412,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1451,16 +1469,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
@@ -1484,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1493,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -1514,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -1536,20 +1554,47 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,19 +1645,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,7 +1669,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,24 +1683,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,25 +1719,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,7 +1749,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,25 +1760,25 @@
         <v>4</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1790,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,37 +1801,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
         <v>88</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,31 +1845,31 @@
         <v>6</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
         <v>92</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,16 +1880,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -1861,7 +1906,7 @@
       <c r="B36" s="14"/>
       <c r="D36" s="17"/>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1869,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,7 +1936,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1899,37 +1944,37 @@
         <v>9</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1978,26 +2023,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,14 +2056,14 @@
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2026,40 +2071,40 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2067,26 +2112,26 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,14 +2145,14 @@
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -2115,26 +2160,26 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,14 +2193,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -2163,19 +2208,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,7 +2229,7 @@
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,7 +2247,7 @@
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2218,7 +2263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8259D0-D779-4AE5-B808-06987DF71F03}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
